--- a/assets/template/8c_s2.xlsx
+++ b/assets/template/8c_s2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\borang\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D01067-03D2-4E2F-BA76-987482249658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D44260-A70C-4772-B32E-A78BD7C761F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="2535" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="615" windowWidth="15300" windowHeight="9045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8c" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Tabel 8.c Masa Studi Lulusan </t>
   </si>
   <si>
-    <t>Diisi oleh pengusul dari Program Studi pada Program Diploma Tiga</t>
-  </si>
-  <si>
     <t>Tahun Masuk</t>
   </si>
   <si>
@@ -40,22 +37,34 @@
     <t>Jumlah Mahasiswa yang lulus pada</t>
   </si>
   <si>
-    <t xml:space="preserve">Jumlah Lulusan s.d. akhir TS </t>
-  </si>
-  <si>
     <t>Rata-rata Masa Studi</t>
   </si>
   <si>
-    <t>akhir TS-3</t>
-  </si>
-  <si>
-    <t>akhir TS-2</t>
-  </si>
-  <si>
-    <t>akhir TS-1</t>
-  </si>
-  <si>
     <t>Akhir TS</t>
+  </si>
+  <si>
+    <t>TS-3</t>
+  </si>
+  <si>
+    <t>Jumlah Lulusan s.d. akhir TS</t>
+  </si>
+  <si>
+    <t>Akhir TS-3</t>
+  </si>
+  <si>
+    <t>Akhir TS-2</t>
+  </si>
+  <si>
+    <t>Akhir TS-1</t>
+  </si>
+  <si>
+    <t>Diisi oleh pengusul dari Program Studi pada Program Magister</t>
+  </si>
+  <si>
+    <t>TS-1</t>
+  </si>
+  <si>
+    <t>TS-2</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,6 +184,32 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -217,7 +252,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -225,9 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -240,6 +272,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -256,6 +289,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -598,157 +637,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="10.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="10" width="10.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8" t="s">
+      <c r="G7" s="9">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="H7" s="9">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6">
-        <f>SUM(C7:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <f>SUM(C8:F8)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <f>SUM(C9:F9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <f>SUM(C10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
